--- a/result/test.xlsx
+++ b/result/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Clientes</t>
   </si>
@@ -80,10 +80,16 @@
     <t>1873,81</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-6600</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-66.0</t>
+  </si>
+  <si>
+    <t>gfdg</t>
+  </si>
+  <si>
+    <t>55455</t>
   </si>
   <si>
     <t>51033</t>
@@ -110,7 +116,7 @@
     <t>1517,5</t>
   </si>
   <si>
-    <t>130635</t>
+    <t>-59.40000000000009</t>
   </si>
 </sst>
 </file>
@@ -118,18 +124,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -157,57 +158,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -216,37 +216,113 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
